--- a/数据整理/stocks/A股/深证主板/002233-塔牌集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002233-塔牌集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005770</t>
+          <t>512590</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
+          <t>浦银安盛中证高股息精选ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>007593</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+          <t>鹏扬中证500质量成长指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>007594</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>鹏扬中证500质量成长指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007593</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数A</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>95.57</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007594</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数C</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>95.57</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>005770</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>信达澳银中证沪港深高股息精选指数</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>97.75</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>007593</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>鹏扬中证500质量成长指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -818,26 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>512590</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>浦银安盛中证高股息精选ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -846,26 +976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005770</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007593</t>
+          <t>007594</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数A</t>
+          <t>鹏扬中证500质量成长指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>95.80</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -902,25 +1052,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007594</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>95.80</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>97.58</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>001351</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>诺安中证500指数增强A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001351</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强A</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010355</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>005770</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>信达澳银中证沪港深高股息精选指数</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1070,26 +1280,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>010355</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>91.12</t>
-        </is>
-      </c>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002233-塔牌集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002233-塔牌集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1288,7 +1289,6 @@
           <t>诺安中证500指数增强C</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>92.82</t>
@@ -1304,6 +1304,214 @@
       </c>
       <c r="H12" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002233-塔牌集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002233-塔牌集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1517,4 +1518,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002233-塔牌集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002233-塔牌集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1954,4 +1955,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002233-塔牌集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002233-塔牌集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1963,7 +1964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1974,17 +1975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1994,14 +2015,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2010,14 +2053,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2026,14 +2091,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.18</v>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2042,13 +2129,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002233-塔牌集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002233-塔牌集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2172,7 +2173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2183,17 +2184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2203,14 +2224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3348</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2219,14 +2262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -2235,14 +2300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2251,14 +2338,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.18</v>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2267,13 +2376,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002233-塔牌集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002233-塔牌集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2723,7 +2724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2734,17 +2735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2754,14 +2775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.83</v>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2770,14 +2813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2786,14 +2851,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -2802,14 +2973,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="6">
@@ -2818,14 +2989,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -2834,13 +3005,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002233-塔牌集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002233-塔牌集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.83</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.28</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159617</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证智选500价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1319,7 +1468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1527,7 +1676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1963,7 +2112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2171,7 +2320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2638,7 +2787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002233-塔牌集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002233-塔牌集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.83</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.28</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -616,7 +633,651 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>562530</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信澳中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -748,7 +1409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -918,7 +1579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1468,7 +2129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1676,7 +2337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2112,7 +2773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2320,7 +2981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2785,402 +3446,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512590</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>浦银安盛中证高股息精选ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005561</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0361</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007593</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0288</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007594</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0239</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>97.75</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005562</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005770</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>